--- a/documentation/project3_hours.xlsx
+++ b/documentation/project3_hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamabernathy/Documents/Code/EECS_448/EECS448_Project3/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA63EF1-2C3F-AC46-98EA-FA9329C2B9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2F7029-492F-8A41-B4AB-A8ACAA7B22E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="22040" windowHeight="18700" xr2:uid="{95E92A2B-6B56-A848-A2BD-279D9D67E859}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -171,6 +171,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -180,9 +183,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,7 +500,7 @@
   <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -519,29 +519,29 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="5"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="8"/>
       <c r="W1" s="1"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
@@ -619,70 +619,72 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6">
-        <v>1</v>
-      </c>
-      <c r="N3" s="6">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3">
+        <v>1</v>
+      </c>
+      <c r="N3" s="3">
         <v>0.5</v>
       </c>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6">
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3">
         <v>2</v>
       </c>
-      <c r="T3" s="6">
+      <c r="S3" s="3">
         <v>2</v>
       </c>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6">
+      <c r="T3" s="3">
+        <v>2</v>
+      </c>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3">
         <f>SUM(B3:V3)</f>
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6">
-        <v>1</v>
-      </c>
-      <c r="N4" s="6">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3">
+        <v>1</v>
+      </c>
+      <c r="N4" s="3">
         <v>0.5</v>
       </c>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6">
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3">
         <f t="shared" ref="W4:W7" si="0">SUM(B4:V4)</f>
         <v>1.5</v>
       </c>
@@ -691,40 +693,40 @@
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6">
-        <v>1</v>
-      </c>
-      <c r="N5" s="6">
-        <v>1</v>
-      </c>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3">
+        <v>1</v>
+      </c>
+      <c r="N5" s="3">
+        <v>1</v>
+      </c>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3">
         <v>0.5</v>
       </c>
-      <c r="Q5" s="6">
-        <v>1</v>
-      </c>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6">
+      <c r="Q5" s="3">
+        <v>1</v>
+      </c>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3">
         <v>2</v>
       </c>
-      <c r="T5" s="6">
-        <v>1</v>
-      </c>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6">
+      <c r="T5" s="3">
+        <v>1</v>
+      </c>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3">
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
@@ -733,38 +735,38 @@
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6">
-        <v>1</v>
-      </c>
-      <c r="N6" s="6">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3">
+        <v>1</v>
+      </c>
+      <c r="N6" s="3">
         <v>0.5</v>
       </c>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6">
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3">
         <v>0.5</v>
       </c>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6">
-        <v>1</v>
-      </c>
-      <c r="T6" s="6">
-        <v>1</v>
-      </c>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6">
+      <c r="R6" s="3"/>
+      <c r="S6" s="3">
+        <v>1</v>
+      </c>
+      <c r="T6" s="3">
+        <v>1</v>
+      </c>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -773,40 +775,40 @@
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6">
-        <v>1</v>
-      </c>
-      <c r="N7" s="6">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3">
+        <v>1</v>
+      </c>
+      <c r="N7" s="3">
         <v>0.5</v>
       </c>
-      <c r="O7" s="6"/>
+      <c r="O7" s="3"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
-      <c r="R7" s="6"/>
+      <c r="R7" s="3"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6">
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="W8" s="8">
+      <c r="W8" s="5">
         <f>SUM(W3:W7)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/project3_hours.xlsx
+++ b/documentation/project3_hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamabernathy/Documents/Code/EECS_448/EECS448_Project3/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6C7387-3DA2-BC4F-BFA2-577007A7CFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9031E558-9C51-FB41-B931-C52888F8A4AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="22040" windowHeight="18700" xr2:uid="{95E92A2B-6B56-A848-A2BD-279D9D67E859}"/>
   </bookViews>
@@ -500,7 +500,7 @@
   <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -651,10 +651,12 @@
       <c r="U3" s="3">
         <v>3</v>
       </c>
-      <c r="V3" s="3"/>
+      <c r="V3" s="3">
+        <v>1.5</v>
+      </c>
       <c r="W3" s="3">
         <f>SUM(B3:V3)</f>
-        <v>10.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
@@ -810,7 +812,7 @@
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="W8" s="5">
         <f>SUM(W3:W7)</f>
-        <v>24</v>
+        <v>25.5</v>
       </c>
     </row>
   </sheetData>
